--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value422.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value422.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.010122324475716</v>
+        <v>1.911425471305847</v>
       </c>
       <c r="B1">
-        <v>1.496365881290085</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.551437629954191</v>
+        <v>2.226892709732056</v>
       </c>
       <c r="D1">
-        <v>2.982713458439813</v>
+        <v>1.443475723266602</v>
       </c>
       <c r="E1">
-        <v>1.092575446187226</v>
+        <v>1.178920865058899</v>
       </c>
     </row>
   </sheetData>
